--- a/source_data_old/51_data.xlsx
+++ b/source_data_old/51_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4F6E775A-EEEF-441F-805A-21677D4BCF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDBB274-30E2-45EA-A8FA-FC059E1817E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987748A-7F06-4336-99C3-C57FCA7E965F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BD400"/>
+  <dimension ref="A1:AA400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,7 +1523,7 @@
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,37 +1605,8 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-    </row>
-    <row r="2" spans="1:56">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>51</v>
       </c>
@@ -1718,7 +1689,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>51</v>
       </c>
@@ -1801,7 +1772,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>51</v>
       </c>
@@ -1884,7 +1855,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>51</v>
       </c>
@@ -1967,7 +1938,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>51</v>
       </c>
@@ -2050,7 +2021,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>51</v>
       </c>
@@ -2133,7 +2104,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>51</v>
       </c>
@@ -2216,7 +2187,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>51</v>
       </c>
@@ -2299,7 +2270,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>51</v>
       </c>
@@ -2382,7 +2353,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>51</v>
       </c>
@@ -2465,7 +2436,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>51</v>
       </c>
@@ -2548,7 +2519,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>51</v>
       </c>
@@ -2631,7 +2602,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>51</v>
       </c>
@@ -2714,7 +2685,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>51</v>
       </c>
@@ -2797,7 +2768,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>51</v>
       </c>
@@ -33384,20 +33355,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33624,13 +33595,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C627C8-8918-470D-89F1-5EE8C372E725}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA59A59C-C23B-4C2E-A3B8-6854924370D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA59A59C-C23B-4C2E-A3B8-6854924370D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C627C8-8918-470D-89F1-5EE8C372E725}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE27D22-63B5-4D5C-A3B0-31DE92946838}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE27D22-63B5-4D5C-A3B0-31DE92946838}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>